--- a/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
+++ b/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostemkin/Pictures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostemkin/Documents/Personal/PrP/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,15 +293,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
@@ -319,6 +310,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -395,7 +395,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -521,11 +520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2123135136"/>
-        <c:axId val="-2082230608"/>
+        <c:axId val="-2126956368"/>
+        <c:axId val="-2129619904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123135136"/>
+        <c:axId val="-2126956368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +567,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082230608"/>
+        <c:crossAx val="-2129619904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082230608"/>
+        <c:axId val="-2129619904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +626,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123135136"/>
+        <c:crossAx val="-2126956368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -641,7 +640,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,11 +957,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2144903280"/>
-        <c:axId val="-2140424320"/>
+        <c:axId val="-2130525680"/>
+        <c:axId val="-2130529216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144903280"/>
+        <c:axId val="-2130525680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1004,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140424320"/>
+        <c:crossAx val="-2130529216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1014,7 +1012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140424320"/>
+        <c:axId val="-2130529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144903280"/>
+        <c:crossAx val="-2130525680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1186,7 +1184,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1312,11 +1309,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2085667808"/>
-        <c:axId val="-2122787632"/>
+        <c:axId val="-2130355392"/>
+        <c:axId val="-2130358944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085667808"/>
+        <c:axId val="-2130355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1356,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122787632"/>
+        <c:crossAx val="-2130358944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122787632"/>
+        <c:axId val="-2130358944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1415,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085667808"/>
+        <c:crossAx val="-2130355392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,7 +1429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1539,7 +1535,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1667,11 +1662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2081867200"/>
-        <c:axId val="-2097247200"/>
+        <c:axId val="-2125999456"/>
+        <c:axId val="-2125995936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2081867200"/>
+        <c:axId val="-2125999456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1709,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097247200"/>
+        <c:crossAx val="-2125995936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097247200"/>
+        <c:axId val="-2125995936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1768,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081867200"/>
+        <c:crossAx val="-2125999456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,7 +1782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1894,7 +1888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2023,11 +2016,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2046454128"/>
-        <c:axId val="-2082462656"/>
+        <c:axId val="-2130417184"/>
+        <c:axId val="-2130420736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046454128"/>
+        <c:axId val="-2130417184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082462656"/>
+        <c:crossAx val="-2130420736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2078,7 +2071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082462656"/>
+        <c:axId val="-2130420736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2122,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046454128"/>
+        <c:crossAx val="-2130417184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2143,7 +2136,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3043,11 +3035,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2082779392"/>
-        <c:axId val="-2140131808"/>
+        <c:axId val="-2126897008"/>
+        <c:axId val="-2126893440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2082779392"/>
+        <c:axId val="-2126897008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3082,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140131808"/>
+        <c:crossAx val="-2126893440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,7 +3090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140131808"/>
+        <c:axId val="-2126893440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3141,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082779392"/>
+        <c:crossAx val="-2126897008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3244,7 +3236,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4063,11 +4054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2082835216"/>
-        <c:axId val="-2082831872"/>
+        <c:axId val="-2127713232"/>
+        <c:axId val="-2127709664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2082835216"/>
+        <c:axId val="-2127713232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4101,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082831872"/>
+        <c:crossAx val="-2127709664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4118,7 +4109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082831872"/>
+        <c:axId val="-2127709664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4160,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082835216"/>
+        <c:crossAx val="-2127713232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4183,7 +4174,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4497,11 +4487,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2129378384"/>
-        <c:axId val="2127758448"/>
+        <c:axId val="-2130476240"/>
+        <c:axId val="-2130479792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129378384"/>
+        <c:axId val="-2130476240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +4534,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127758448"/>
+        <c:crossAx val="-2130479792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4552,7 +4542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127758448"/>
+        <c:axId val="-2130479792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,7 +4593,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129378384"/>
+        <c:crossAx val="-2130476240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4936,11 +4926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2114074928"/>
-        <c:axId val="2145090400"/>
+        <c:axId val="-2127771328"/>
+        <c:axId val="-2127776048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114074928"/>
+        <c:axId val="-2127771328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4983,7 +4973,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145090400"/>
+        <c:crossAx val="-2127776048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4991,7 +4981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145090400"/>
+        <c:axId val="-2127776048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5032,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114074928"/>
+        <c:crossAx val="-2127771328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5374,11 +5364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144800368"/>
-        <c:axId val="-2145670336"/>
+        <c:axId val="-2125972944"/>
+        <c:axId val="-2125969424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144800368"/>
+        <c:axId val="-2125972944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,7 +5411,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145670336"/>
+        <c:crossAx val="-2125969424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5429,7 +5419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145670336"/>
+        <c:axId val="-2125969424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5480,7 +5470,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144800368"/>
+        <c:crossAx val="-2125972944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11539,7 +11529,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> более большей выборке одинаков</a:t>
+            <a:t> более большей выборке одинаковы</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" b="1" i="0" u="none" strike="noStrike">
@@ -12100,7 +12090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -12114,14 +12104,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -12147,36 +12137,36 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>4096</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>16384</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>65536</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>262144</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>1048576</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <v>4194304</v>
       </c>
     </row>
@@ -12184,22 +12174,22 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>34</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>310</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>490</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>1938</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>8358</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>31590</v>
       </c>
     </row>
@@ -12227,36 +12217,36 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>4096</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>16384</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>65536</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>262144</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>1048576</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <v>4194304</v>
       </c>
     </row>
@@ -12264,22 +12254,22 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>21</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>85</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>305</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>1643</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>4718</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>20428</v>
       </c>
     </row>
@@ -12307,36 +12297,36 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>262144</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>2097152</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>16777216</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>134217728</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>1073741824</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>8589934592</v>
       </c>
     </row>
@@ -12344,22 +12334,22 @@
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>3418</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>28818</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>238520</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>2522518</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>37363610</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>669571279</v>
       </c>
     </row>
@@ -12387,36 +12377,36 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>117475.47</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>822126.00300000003</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>5753466.4199999999</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>40264358.149999999</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>281781176.63999999</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>1971983042.8900001</v>
       </c>
     </row>
@@ -12424,22 +12414,22 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>3264</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>29820</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>189220</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>1368056</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>9572007</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>67747129</v>
       </c>
     </row>

--- a/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
+++ b/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Theory approximate" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Report" sheetId="1" r:id="rId2"/>
     <sheet name="Report2" sheetId="3" r:id="rId3"/>
+    <sheet name="Report3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>x32</t>
   </si>
@@ -191,6 +192,12 @@
   </si>
   <si>
     <t>withSimd</t>
+  </si>
+  <si>
+    <t>ParWithSimd</t>
+  </si>
+  <si>
+    <t>ParW/outSimd</t>
   </si>
 </sst>
 </file>
@@ -508,7 +515,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -581,6 +588,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="20" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="21" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,6 +605,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -613,13 +627,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="20" builtinId="30"/>
@@ -824,11 +833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2125332784"/>
-        <c:axId val="2125334240"/>
+        <c:axId val="2096497968"/>
+        <c:axId val="2094783296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125332784"/>
+        <c:axId val="2096497968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +880,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125334240"/>
+        <c:crossAx val="2094783296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,7 +888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125334240"/>
+        <c:axId val="2094783296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +939,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125332784"/>
+        <c:crossAx val="2096497968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,11 +1270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144512272"/>
-        <c:axId val="-2144508752"/>
+        <c:axId val="2096232384"/>
+        <c:axId val="2096228848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144512272"/>
+        <c:axId val="2096232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1317,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144508752"/>
+        <c:crossAx val="2096228848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144508752"/>
+        <c:axId val="2096228848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1376,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144512272"/>
+        <c:crossAx val="2096232384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1879,11 +1888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2098287824"/>
-        <c:axId val="-2098286368"/>
+        <c:axId val="2108142720"/>
+        <c:axId val="2108146352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098287824"/>
+        <c:axId val="2108142720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1935,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098286368"/>
+        <c:crossAx val="2108146352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1934,7 +1943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098286368"/>
+        <c:axId val="2108146352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +1994,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098287824"/>
+        <c:crossAx val="2108142720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2495,11 +2504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2135733312"/>
-        <c:axId val="-2103492880"/>
+        <c:axId val="2096117856"/>
+        <c:axId val="2096114208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135733312"/>
+        <c:axId val="2096117856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2551,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103492880"/>
+        <c:crossAx val="2096114208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2550,7 +2559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103492880"/>
+        <c:axId val="2096114208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2610,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135733312"/>
+        <c:crossAx val="2096117856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3111,11 +3120,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2081540320"/>
-        <c:axId val="-2081531808"/>
+        <c:axId val="2094891216"/>
+        <c:axId val="2094894848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2081540320"/>
+        <c:axId val="2094891216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,7 +3167,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081531808"/>
+        <c:crossAx val="2094894848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3166,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081531808"/>
+        <c:axId val="2094894848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3226,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081540320"/>
+        <c:crossAx val="2094891216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3723,11 +3732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2082552464"/>
-        <c:axId val="-2082941040"/>
+        <c:axId val="2109156160"/>
+        <c:axId val="2109159792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2082552464"/>
+        <c:axId val="2109156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3779,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082941040"/>
+        <c:crossAx val="2109159792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3778,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082941040"/>
+        <c:axId val="2109159792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3829,7 +3838,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082552464"/>
+        <c:crossAx val="2109156160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4090,11 +4099,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2101640576"/>
-        <c:axId val="-2043185296"/>
+        <c:axId val="2109202496"/>
+        <c:axId val="2109206000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101640576"/>
+        <c:axId val="2109202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4146,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043185296"/>
+        <c:crossAx val="2109206000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4145,7 +4154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2043185296"/>
+        <c:axId val="2109206000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4205,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101640576"/>
+        <c:crossAx val="2109202496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,11 +4424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2082017728"/>
-        <c:axId val="-2029657824"/>
+        <c:axId val="2108169776"/>
+        <c:axId val="2108173280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2082017728"/>
+        <c:axId val="2108169776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4462,7 +4471,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029657824"/>
+        <c:crossAx val="2108173280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4470,7 +4479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029657824"/>
+        <c:axId val="2108173280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4530,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082017728"/>
+        <c:crossAx val="2108169776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4740,11 +4749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2043876800"/>
-        <c:axId val="-2041548624"/>
+        <c:axId val="2094858768"/>
+        <c:axId val="2094862000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2043876800"/>
+        <c:axId val="2094858768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +4796,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041548624"/>
+        <c:crossAx val="2094862000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4795,7 +4804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041548624"/>
+        <c:axId val="2094862000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,7 +4855,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043876800"/>
+        <c:crossAx val="2094858768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5065,11 +5074,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2043157440"/>
-        <c:axId val="-2042691792"/>
+        <c:axId val="2109219104"/>
+        <c:axId val="2109222608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2043157440"/>
+        <c:axId val="2109219104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5121,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2042691792"/>
+        <c:crossAx val="2109222608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5120,7 +5129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2042691792"/>
+        <c:axId val="2109222608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5171,7 +5180,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043157440"/>
+        <c:crossAx val="2109219104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5183,6 +5192,504 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поиск максимального</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.281680446194226"/>
+          <c:y val="0.0555555555555555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1621.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5959.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26023.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95559.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>withSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1253.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4755.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19720.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParWithSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1039.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1110.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3640.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7682.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParW/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2351.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12076.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2139850592"/>
+        <c:axId val="-2139471424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139850592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2139471424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139471424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2139850592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5385,11 +5892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144872128"/>
-        <c:axId val="-2144868592"/>
+        <c:axId val="2107088624"/>
+        <c:axId val="2107092160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144872128"/>
+        <c:axId val="2107088624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5432,7 +5939,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144868592"/>
+        <c:crossAx val="2107092160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5440,7 +5947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144868592"/>
+        <c:axId val="2107092160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5491,7 +5998,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144872128"/>
+        <c:crossAx val="2107088624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5505,6 +6012,1865 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Умножение на Вектор</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1407.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5237.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22007.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79377.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>withSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1711.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7931.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParWithSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1033.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1584.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5396.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParW/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1864.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7333.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2146687456"/>
+        <c:axId val="2145705376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2146687456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145705376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2145705376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2146687456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Умножение матриц. Способ один 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9240.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72754.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611564.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.625372E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5211491E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.306827989E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>withSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4523.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31951.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251819.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.112002E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5507731E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29207133E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParWithSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2394.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8927.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62498.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506833.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.002474E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4591301E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParW/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1174.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9012.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69088.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>861701.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.674757E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.99788184E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2126633312"/>
+        <c:axId val="-2123866656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2126633312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2123866656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2123866656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126633312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Умножение на матрицу. Способ 2. Алгоритм Штрассена</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8933.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69868.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459801.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.510083E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3281382E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.69747146E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>withSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5719.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38028.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222509.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.567414E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0931391E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9092586E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParWithSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3708.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33584.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80185.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>436095.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.123127E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2435655E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParW/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3696.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30193.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79502.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439434.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.104304E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.172108E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2143106096"/>
+        <c:axId val="2143538096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2143106096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143538096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143538096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143106096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Второй способ парализации</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> алгоритма Штрассена</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParWithSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2718.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33749.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85599.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590852.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.730407E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0505949E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParW/outSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40473.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84061.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>539326.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.058329E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8914573E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2139697632"/>
+        <c:axId val="-2124563568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139697632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124563568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124563568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2139697632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5738,11 +8104,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2117970304"/>
-        <c:axId val="2117852432"/>
+        <c:axId val="2105880432"/>
+        <c:axId val="2105854624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117970304"/>
+        <c:axId val="2105880432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5785,7 +8151,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117852432"/>
+        <c:crossAx val="2105854624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5793,7 +8159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117852432"/>
+        <c:axId val="2105854624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5844,7 +8210,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117970304"/>
+        <c:crossAx val="2105880432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6092,11 +8458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144836080"/>
-        <c:axId val="-2144832544"/>
+        <c:axId val="2096416448"/>
+        <c:axId val="2096412912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144836080"/>
+        <c:axId val="2096416448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6139,7 +8505,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144832544"/>
+        <c:crossAx val="2096412912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6147,7 +8513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144832544"/>
+        <c:axId val="2096412912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,7 +8564,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144836080"/>
+        <c:crossAx val="2096416448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7111,11 +9477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144762064"/>
-        <c:axId val="-2144758496"/>
+        <c:axId val="2096321504"/>
+        <c:axId val="2096317920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144762064"/>
+        <c:axId val="2096321504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7158,7 +9524,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144758496"/>
+        <c:crossAx val="2096317920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7166,7 +9532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144758496"/>
+        <c:axId val="2096317920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7217,7 +9583,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144762064"/>
+        <c:crossAx val="2096321504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8130,11 +10496,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144679824"/>
-        <c:axId val="-2144676256"/>
+        <c:axId val="2105718960"/>
+        <c:axId val="2105715376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144679824"/>
+        <c:axId val="2105718960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8177,7 +10543,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144676256"/>
+        <c:crossAx val="2105715376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8185,7 +10551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144676256"/>
+        <c:axId val="2105715376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8236,7 +10602,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144679824"/>
+        <c:crossAx val="2105718960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8562,11 +10928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144630768"/>
-        <c:axId val="-2144627232"/>
+        <c:axId val="2105571840"/>
+        <c:axId val="2105568288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144630768"/>
+        <c:axId val="2105571840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8609,7 +10975,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144627232"/>
+        <c:crossAx val="2105568288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8617,7 +10983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144627232"/>
+        <c:axId val="2105568288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8668,7 +11034,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144630768"/>
+        <c:crossAx val="2105571840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8999,11 +11365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144590816"/>
-        <c:axId val="-2144587280"/>
+        <c:axId val="2108112624"/>
+        <c:axId val="2108116160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144590816"/>
+        <c:axId val="2108112624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9046,7 +11412,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144587280"/>
+        <c:crossAx val="2108116160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9054,7 +11420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144587280"/>
+        <c:axId val="2108116160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9105,7 +11471,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144590816"/>
+        <c:crossAx val="2108112624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9435,11 +11801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2144551152"/>
-        <c:axId val="-2144547632"/>
+        <c:axId val="2094813856"/>
+        <c:axId val="2094817376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144551152"/>
+        <c:axId val="2094813856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9482,7 +11848,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144547632"/>
+        <c:crossAx val="2094817376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9490,7 +11856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144547632"/>
+        <c:axId val="2094817376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,7 +11907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144551152"/>
+        <c:crossAx val="2094813856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10021,7 +12387,207 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15501,7 +18067,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21082,6 +26228,353 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2988575" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="152400"/>
+          <a:ext cx="2988575" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Практические</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> результаты</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10214463" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="9067800"/>
+          <a:ext cx="10214463" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Как видно</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> из графиков паралелизация дает заметное увеличение производительности. Также видно, что на маленьких матрицах генерация потоков и работа с ними </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>становится слишком затратной, поэтому в таких случаях лучше использовать обычный </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SIMD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>. Также из полученных результов видно, что распаралеливание обычной</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>("не симдовской матрицы") дает прирост в производительности почти такой же, как и переделка такой на матрицы на матрицу с использованием </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SIMD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>, что еще раз </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>подтверждает эффективность </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SIMD. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Стоит учесть, что также видно, что особенности использования </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SIMD </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>под </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>C# </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>и требования к методам, которые будут </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>подверджены паралелизации в итоге не дают такого же прироста в производительности как в случае не симдовских матриц.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -21401,14 +26894,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -21434,15 +26927,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -21514,15 +27007,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -21594,15 +27087,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -21674,15 +27167,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -21772,8 +27265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="E100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21812,30 +27305,30 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="45">
         <v>4</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -21845,27 +27338,27 @@
         <v>19</v>
       </c>
       <c r="D7" s="18">
-        <f>POWER(D4,2)</f>
+        <f t="shared" ref="D7:I7" si="0">POWER(D4,2)</f>
         <v>4096</v>
       </c>
       <c r="E7" s="18">
-        <f>POWER(E4,2)</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="F7" s="18">
-        <f>POWER(F4,2)</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="G7" s="18">
-        <f>POWER(G4,2)</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="H7" s="18">
-        <f>POWER(H4,2)</f>
+        <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
       <c r="I7" s="18">
-        <f>POWER(I4,2)</f>
+        <f t="shared" si="0"/>
         <v>4194304</v>
       </c>
     </row>
@@ -21877,27 +27370,27 @@
         <v>21</v>
       </c>
       <c r="D8" s="21">
-        <f>POWER(D4,2)/4</f>
+        <f t="shared" ref="D8:I8" si="1">POWER(D4,2)/4</f>
         <v>1024</v>
       </c>
       <c r="E8" s="21">
-        <f>POWER(E4,2)/4</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="F8" s="21">
-        <f>POWER(F4,2)/4</f>
+        <f t="shared" si="1"/>
         <v>16384</v>
       </c>
       <c r="G8" s="21">
-        <f>POWER(G4,2)/4</f>
+        <f t="shared" si="1"/>
         <v>65536</v>
       </c>
       <c r="H8" s="21">
-        <f>POWER(H4,2)/4</f>
+        <f t="shared" si="1"/>
         <v>262144</v>
       </c>
       <c r="I8" s="21">
-        <f>POWER(I4,2)/4</f>
+        <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
     </row>
@@ -21909,27 +27402,27 @@
         <v>4</v>
       </c>
       <c r="D9" s="27">
-        <f>D7/D8</f>
+        <f t="shared" ref="D9:I9" si="2">D7/D8</f>
         <v>4</v>
       </c>
       <c r="E9" s="27">
-        <f>E7/E8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F9" s="27">
-        <f>F7/F8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G9" s="27">
-        <f>G7/G8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H9" s="27">
-        <f>H7/H8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I9" s="27">
-        <f>I7/I8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -21941,27 +27434,27 @@
         <v>1</v>
       </c>
       <c r="D10" s="21">
-        <f>D9/$C6</f>
+        <f t="shared" ref="D10:I10" si="3">D9/$C6</f>
         <v>1</v>
       </c>
       <c r="E10" s="21">
-        <f>E9/$C6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F10" s="21">
-        <f>F9/$C6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10" s="21">
-        <f>G9/$C6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H10" s="21">
-        <f>H9/$C6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I10" s="21">
-        <f>I9/$C6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -21973,55 +27466,55 @@
         <v>19</v>
       </c>
       <c r="D11" s="17">
-        <f>$C6*D8</f>
+        <f t="shared" ref="D11:I11" si="4">$C6*D8</f>
         <v>4096</v>
       </c>
       <c r="E11" s="17">
-        <f>$C6*E8</f>
+        <f t="shared" si="4"/>
         <v>16384</v>
       </c>
       <c r="F11" s="17">
-        <f>$C6*F8</f>
+        <f t="shared" si="4"/>
         <v>65536</v>
       </c>
       <c r="G11" s="17">
-        <f>$C6*G8</f>
+        <f t="shared" si="4"/>
         <v>262144</v>
       </c>
       <c r="H11" s="17">
-        <f>$C6*H8</f>
+        <f t="shared" si="4"/>
         <v>1048576</v>
       </c>
       <c r="I11" s="17">
-        <f>$C6*I8</f>
+        <f t="shared" si="4"/>
         <v>4194304</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="45">
         <v>4</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
@@ -22031,27 +27524,27 @@
         <v>19</v>
       </c>
       <c r="D14" s="18">
-        <f>POWER(D4,2)</f>
+        <f t="shared" ref="D14:I14" si="5">POWER(D4,2)</f>
         <v>4096</v>
       </c>
       <c r="E14" s="18">
-        <f>POWER(E4,2)</f>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="F14" s="18">
-        <f>POWER(F4,2)</f>
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
       <c r="G14" s="18">
-        <f>POWER(G4,2)</f>
+        <f t="shared" si="5"/>
         <v>262144</v>
       </c>
       <c r="H14" s="18">
-        <f>POWER(H4,2)</f>
+        <f t="shared" si="5"/>
         <v>1048576</v>
       </c>
       <c r="I14" s="18">
-        <f>POWER(I4,2)</f>
+        <f t="shared" si="5"/>
         <v>4194304</v>
       </c>
     </row>
@@ -22073,27 +27566,27 @@
         <v>21</v>
       </c>
       <c r="D16" s="21">
-        <f>POWER(D4,2)/4</f>
+        <f t="shared" ref="D16:I16" si="6">POWER(D4,2)/4</f>
         <v>1024</v>
       </c>
       <c r="E16" s="21">
-        <f>POWER(E4,2)/4</f>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="F16" s="21">
-        <f>POWER(F4,2)/4</f>
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="G16" s="21">
-        <f>POWER(G4,2)/4</f>
+        <f t="shared" si="6"/>
         <v>65536</v>
       </c>
       <c r="H16" s="21">
-        <f>POWER(H4,2)/4</f>
+        <f t="shared" si="6"/>
         <v>262144</v>
       </c>
       <c r="I16" s="21">
-        <f>POWER(I4,2)/4</f>
+        <f t="shared" si="6"/>
         <v>1048576</v>
       </c>
     </row>
@@ -22109,23 +27602,23 @@
         <v>4</v>
       </c>
       <c r="E17" s="27">
-        <f t="shared" ref="E17:I17" si="0">E14/E16</f>
+        <f t="shared" ref="E17:I17" si="7">E14/E16</f>
         <v>4</v>
       </c>
       <c r="F17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -22137,27 +27630,27 @@
         <v>1</v>
       </c>
       <c r="D18" s="21">
-        <f>D17/$C13</f>
+        <f t="shared" ref="D18:I18" si="8">D17/$C13</f>
         <v>1</v>
       </c>
       <c r="E18" s="21">
-        <f>E17/$C13</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F18" s="21">
-        <f>F17/$C13</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G18" s="21">
-        <f>G17/$C13</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H18" s="21">
-        <f>H17/$C13</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I18" s="21">
-        <f>I17/$C13</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -22169,55 +27662,55 @@
         <v>19</v>
       </c>
       <c r="D19" s="17">
-        <f>$C13*D16</f>
+        <f t="shared" ref="D19:I19" si="9">$C13*D16</f>
         <v>4096</v>
       </c>
       <c r="E19" s="17">
-        <f>$C13*E16</f>
+        <f t="shared" si="9"/>
         <v>16384</v>
       </c>
       <c r="F19" s="17">
-        <f>$C13*F16</f>
+        <f t="shared" si="9"/>
         <v>65536</v>
       </c>
       <c r="G19" s="17">
-        <f>$C13*G16</f>
+        <f t="shared" si="9"/>
         <v>262144</v>
       </c>
       <c r="H19" s="17">
-        <f>$C13*H16</f>
+        <f t="shared" si="9"/>
         <v>1048576</v>
       </c>
       <c r="I19" s="17">
-        <f>$C13*I16</f>
+        <f t="shared" si="9"/>
         <v>4194304</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="45">
         <v>4</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -22227,27 +27720,27 @@
         <v>24</v>
       </c>
       <c r="D22" s="18">
-        <f>POWER(D4,3)</f>
+        <f t="shared" ref="D22:I22" si="10">POWER(D4,3)</f>
         <v>262144</v>
       </c>
       <c r="E22" s="18">
-        <f>POWER(E4,3)</f>
+        <f t="shared" si="10"/>
         <v>2097152</v>
       </c>
       <c r="F22" s="18">
-        <f>POWER(F4,3)</f>
+        <f t="shared" si="10"/>
         <v>16777216</v>
       </c>
       <c r="G22" s="18">
-        <f>POWER(G4,3)</f>
+        <f t="shared" si="10"/>
         <v>134217728</v>
       </c>
       <c r="H22" s="18">
-        <f>POWER(H4,3)</f>
+        <f t="shared" si="10"/>
         <v>1073741824</v>
       </c>
       <c r="I22" s="18">
-        <f>POWER(I4,3)</f>
+        <f t="shared" si="10"/>
         <v>8589934592</v>
       </c>
     </row>
@@ -22259,27 +27752,27 @@
         <v>26</v>
       </c>
       <c r="D23" s="21">
-        <f>POWER(D4,3)/4</f>
+        <f t="shared" ref="D23:I23" si="11">POWER(D4,3)/4</f>
         <v>65536</v>
       </c>
       <c r="E23" s="21">
-        <f>POWER(E4,3)/4</f>
+        <f t="shared" si="11"/>
         <v>524288</v>
       </c>
       <c r="F23" s="21">
-        <f>POWER(F4,3)/4</f>
+        <f t="shared" si="11"/>
         <v>4194304</v>
       </c>
       <c r="G23" s="21">
-        <f>POWER(G4,3)/4</f>
+        <f t="shared" si="11"/>
         <v>33554432</v>
       </c>
       <c r="H23" s="21">
-        <f>POWER(H4,3)/4</f>
+        <f t="shared" si="11"/>
         <v>268435456</v>
       </c>
       <c r="I23" s="21">
-        <f>POWER(I4,3)/4</f>
+        <f t="shared" si="11"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -22295,23 +27788,23 @@
         <v>4</v>
       </c>
       <c r="E24" s="27">
-        <f t="shared" ref="E24:I24" si="1">E22/E23</f>
+        <f t="shared" ref="E24:I24" si="12">E22/E23</f>
         <v>4</v>
       </c>
       <c r="F24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="G24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -22323,27 +27816,27 @@
         <v>1</v>
       </c>
       <c r="D25" s="21">
-        <f>D24/$C21</f>
+        <f t="shared" ref="D25:I25" si="13">D24/$C21</f>
         <v>1</v>
       </c>
       <c r="E25" s="21">
-        <f>E24/$C21</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F25" s="21">
-        <f>F24/$C21</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G25" s="21">
-        <f>G24/$C21</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H25" s="21">
-        <f>H24/$C21</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I25" s="21">
-        <f>I24/$C21</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -22355,55 +27848,55 @@
         <v>24</v>
       </c>
       <c r="D26" s="17">
-        <f>$C21*D23</f>
+        <f t="shared" ref="D26:I26" si="14">$C21*D23</f>
         <v>262144</v>
       </c>
       <c r="E26" s="17">
-        <f>$C21*E23</f>
+        <f t="shared" si="14"/>
         <v>2097152</v>
       </c>
       <c r="F26" s="17">
-        <f>$C21*F23</f>
+        <f t="shared" si="14"/>
         <v>16777216</v>
       </c>
       <c r="G26" s="17">
-        <f>$C21*G23</f>
+        <f t="shared" si="14"/>
         <v>134217728</v>
       </c>
       <c r="H26" s="17">
-        <f>$C21*H23</f>
+        <f t="shared" si="14"/>
         <v>1073741824</v>
       </c>
       <c r="I26" s="17">
-        <f>$C21*I23</f>
+        <f t="shared" si="14"/>
         <v>8589934592</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="45">
         <v>4</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
@@ -22413,27 +27906,27 @@
         <v>25</v>
       </c>
       <c r="D29" s="18">
-        <f>POWER(D4,2.807)</f>
+        <f t="shared" ref="D29:I29" si="15">POWER(D4,2.807)</f>
         <v>117475.46884596099</v>
       </c>
       <c r="E29" s="18">
-        <f>POWER(E4,2.807)</f>
+        <f t="shared" si="15"/>
         <v>822126.00317292102</v>
       </c>
       <c r="F29" s="18">
-        <f>POWER(F4,2.807)</f>
+        <f t="shared" si="15"/>
         <v>5753466.419268691</v>
       </c>
       <c r="G29" s="18">
-        <f>POWER(G4,2.807)</f>
+        <f t="shared" si="15"/>
         <v>40264358.151788071</v>
       </c>
       <c r="H29" s="18">
-        <f>POWER(H4,2.807)</f>
+        <f t="shared" si="15"/>
         <v>281781176.63916576</v>
       </c>
       <c r="I29" s="18">
-        <f>POWER(I4,2.807)</f>
+        <f t="shared" si="15"/>
         <v>1971983042.8894269</v>
       </c>
     </row>
@@ -22445,27 +27938,27 @@
         <v>27</v>
       </c>
       <c r="D30" s="21">
-        <f>POWER(D4,2.807)/4</f>
+        <f t="shared" ref="D30:I30" si="16">POWER(D4,2.807)/4</f>
         <v>29368.867211490247</v>
       </c>
       <c r="E30" s="21">
-        <f>POWER(E4,2.807)/4</f>
+        <f t="shared" si="16"/>
         <v>205531.50079323025</v>
       </c>
       <c r="F30" s="21">
-        <f>POWER(F4,2.807)/4</f>
+        <f t="shared" si="16"/>
         <v>1438366.6048171727</v>
       </c>
       <c r="G30" s="21">
-        <f>POWER(G4,2.807)/4</f>
+        <f t="shared" si="16"/>
         <v>10066089.537947018</v>
       </c>
       <c r="H30" s="21">
-        <f>POWER(H4,2.807)/4</f>
+        <f t="shared" si="16"/>
         <v>70445294.15979144</v>
       </c>
       <c r="I30" s="21">
-        <f>POWER(I4,2.807)/4</f>
+        <f t="shared" si="16"/>
         <v>492995760.72235674</v>
       </c>
     </row>
@@ -22503,27 +27996,27 @@
         <v>1</v>
       </c>
       <c r="D32" s="21">
-        <f>D31/$C28</f>
+        <f t="shared" ref="D32:I32" si="17">D31/$C28</f>
         <v>1</v>
       </c>
       <c r="E32" s="21">
-        <f>E31/$C28</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F32" s="21">
-        <f>F31/$C28</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G32" s="21">
-        <f>G31/$C28</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H32" s="21">
-        <f>H31/$C28</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I32" s="21">
-        <f>I31/$C28</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -22535,27 +28028,27 @@
         <v>25</v>
       </c>
       <c r="D33" s="17">
-        <f>$C28*D30</f>
+        <f t="shared" ref="D33:I33" si="18">$C28*D30</f>
         <v>117475.46884596099</v>
       </c>
       <c r="E33" s="17">
-        <f>$C28*E30</f>
+        <f t="shared" si="18"/>
         <v>822126.00317292102</v>
       </c>
       <c r="F33" s="17">
-        <f>$C28*F30</f>
+        <f t="shared" si="18"/>
         <v>5753466.419268691</v>
       </c>
       <c r="G33" s="17">
-        <f>$C28*G30</f>
+        <f t="shared" si="18"/>
         <v>40264358.151788071</v>
       </c>
       <c r="H33" s="17">
-        <f>$C28*H30</f>
+        <f t="shared" si="18"/>
         <v>281781176.63916576</v>
       </c>
       <c r="I33" s="17">
-        <f>$C28*I30</f>
+        <f t="shared" si="18"/>
         <v>1971983042.8894269</v>
       </c>
     </row>
@@ -22563,40 +28056,40 @@
       <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="49">
+      <c r="C73" s="34"/>
+      <c r="D73" s="36">
         <v>64</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="36">
         <v>128</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="36">
         <v>256</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G73" s="37">
         <v>512</v>
       </c>
-      <c r="H73" s="50">
+      <c r="H73" s="37">
         <v>1024</v>
       </c>
-      <c r="I73" s="50">
+      <c r="I73" s="37">
         <v>2048</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
     </row>
     <row r="75" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C75" s="31" t="s">
@@ -22622,7 +28115,7 @@
       </c>
     </row>
     <row r="76" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="37"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="33" t="s">
         <v>0</v>
       </c>
@@ -22646,7 +28139,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="29" t="s">
@@ -22672,7 +28165,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="38"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="32" t="s">
         <v>0</v>
       </c>
@@ -22696,19 +28189,19 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
     </row>
     <row r="80" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="31" t="s">
@@ -22734,7 +28227,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="37"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="33" t="s">
         <v>0</v>
       </c>
@@ -22758,7 +28251,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C82" s="29" t="s">
@@ -22784,7 +28277,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="38"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="32" t="s">
         <v>0</v>
       </c>
@@ -22808,19 +28301,19 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
     </row>
     <row r="85" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="31" t="s">
@@ -22846,7 +28339,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="37"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="33" t="s">
         <v>0</v>
       </c>
@@ -22870,7 +28363,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -22896,7 +28389,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="38"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="32" t="s">
         <v>0</v>
       </c>
@@ -22920,19 +28413,19 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
     </row>
     <row r="90" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="31" t="s">
@@ -22958,7 +28451,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="37"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="33" t="s">
         <v>0</v>
       </c>
@@ -22982,7 +28475,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -23008,7 +28501,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="38"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="32" t="s">
         <v>0</v>
       </c>
@@ -23032,19 +28525,27 @@
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G100" s="48"/>
+      <c r="G100" s="35"/>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G101" s="48"/>
+      <c r="G101" s="35"/>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G102" s="48"/>
+      <c r="G102" s="35"/>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G103" s="48"/>
+      <c r="G103" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C21:I21"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B74:I74"/>
@@ -23053,14 +28554,6 @@
     <mergeCell ref="B89:I89"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C21:I21"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B80:B81"/>
@@ -23080,4 +28573,524 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36">
+        <v>64</v>
+      </c>
+      <c r="D4" s="36">
+        <v>128</v>
+      </c>
+      <c r="E4" s="36">
+        <v>256</v>
+      </c>
+      <c r="F4" s="37">
+        <v>512</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1024</v>
+      </c>
+      <c r="H4" s="37">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="29">
+        <v>178</v>
+      </c>
+      <c r="D6" s="29">
+        <v>366</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1621</v>
+      </c>
+      <c r="F6" s="29">
+        <v>5959</v>
+      </c>
+      <c r="G6" s="29">
+        <v>26023</v>
+      </c>
+      <c r="H6" s="29">
+        <v>95559</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="30">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30">
+        <v>70</v>
+      </c>
+      <c r="E7" s="30">
+        <v>536</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1253</v>
+      </c>
+      <c r="G7" s="30">
+        <v>4755</v>
+      </c>
+      <c r="H7" s="30">
+        <v>19720</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="29">
+        <v>144</v>
+      </c>
+      <c r="D8" s="29">
+        <v>181</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1039</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1110</v>
+      </c>
+      <c r="G8" s="29">
+        <v>3640</v>
+      </c>
+      <c r="H8" s="29">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="30">
+        <v>158</v>
+      </c>
+      <c r="D9" s="30">
+        <v>156</v>
+      </c>
+      <c r="E9" s="30">
+        <v>426</v>
+      </c>
+      <c r="F9" s="30">
+        <v>879</v>
+      </c>
+      <c r="G9" s="30">
+        <v>2351</v>
+      </c>
+      <c r="H9" s="30">
+        <v>12076</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="29">
+        <v>134</v>
+      </c>
+      <c r="D11" s="29">
+        <v>329</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1407</v>
+      </c>
+      <c r="F11" s="29">
+        <v>5237</v>
+      </c>
+      <c r="G11" s="29">
+        <v>22007</v>
+      </c>
+      <c r="H11" s="29">
+        <v>79377</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="30">
+        <v>9</v>
+      </c>
+      <c r="D12" s="30">
+        <v>22</v>
+      </c>
+      <c r="E12" s="30">
+        <v>136</v>
+      </c>
+      <c r="F12" s="30">
+        <v>473</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1711</v>
+      </c>
+      <c r="H12" s="30">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="29">
+        <v>146</v>
+      </c>
+      <c r="D13" s="29">
+        <v>91</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1033</v>
+      </c>
+      <c r="F13" s="29">
+        <v>700</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1584</v>
+      </c>
+      <c r="H13" s="29">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="30">
+        <v>93</v>
+      </c>
+      <c r="D14" s="30">
+        <v>186</v>
+      </c>
+      <c r="E14" s="30">
+        <v>372</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1864</v>
+      </c>
+      <c r="G14" s="30">
+        <v>2019</v>
+      </c>
+      <c r="H14" s="30">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="29">
+        <v>9240</v>
+      </c>
+      <c r="D16" s="29">
+        <v>72754</v>
+      </c>
+      <c r="E16" s="29">
+        <v>611564</v>
+      </c>
+      <c r="F16" s="29">
+        <v>6625372</v>
+      </c>
+      <c r="G16" s="29">
+        <v>75211491</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1306827989</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="30">
+        <v>4523</v>
+      </c>
+      <c r="D17" s="30">
+        <v>31951</v>
+      </c>
+      <c r="E17" s="30">
+        <v>251819</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2112002</v>
+      </c>
+      <c r="G17" s="30">
+        <v>15507731</v>
+      </c>
+      <c r="H17" s="30">
+        <v>129207133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="29">
+        <v>2394</v>
+      </c>
+      <c r="D18" s="29">
+        <v>8927</v>
+      </c>
+      <c r="E18" s="29">
+        <v>62498</v>
+      </c>
+      <c r="F18" s="29">
+        <v>506833</v>
+      </c>
+      <c r="G18" s="29">
+        <v>4002474</v>
+      </c>
+      <c r="H18" s="29">
+        <v>34591301</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1174</v>
+      </c>
+      <c r="D19" s="30">
+        <v>9012</v>
+      </c>
+      <c r="E19" s="30">
+        <v>69088</v>
+      </c>
+      <c r="F19" s="30">
+        <v>861701</v>
+      </c>
+      <c r="G19" s="30">
+        <v>9674757</v>
+      </c>
+      <c r="H19" s="30">
+        <v>199788184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="29">
+        <v>8933</v>
+      </c>
+      <c r="D21" s="29">
+        <v>69868</v>
+      </c>
+      <c r="E21" s="29">
+        <v>459801</v>
+      </c>
+      <c r="F21" s="29">
+        <v>3510083</v>
+      </c>
+      <c r="G21" s="29">
+        <v>23281382</v>
+      </c>
+      <c r="H21" s="29">
+        <v>169747146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="30">
+        <v>5719</v>
+      </c>
+      <c r="D22" s="30">
+        <v>38028</v>
+      </c>
+      <c r="E22" s="30">
+        <v>222509</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1567414</v>
+      </c>
+      <c r="G22" s="30">
+        <v>10931391</v>
+      </c>
+      <c r="H22" s="30">
+        <v>79092586</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="29">
+        <v>3708</v>
+      </c>
+      <c r="D23" s="29">
+        <v>33584</v>
+      </c>
+      <c r="E23" s="29">
+        <v>80185</v>
+      </c>
+      <c r="F23" s="29">
+        <v>436095</v>
+      </c>
+      <c r="G23" s="29">
+        <v>3123127</v>
+      </c>
+      <c r="H23" s="29">
+        <v>22435655</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="30">
+        <v>3696</v>
+      </c>
+      <c r="D24" s="30">
+        <v>30193</v>
+      </c>
+      <c r="E24" s="30">
+        <v>79502</v>
+      </c>
+      <c r="F24" s="30">
+        <v>439434</v>
+      </c>
+      <c r="G24" s="30">
+        <v>3104304</v>
+      </c>
+      <c r="H24" s="30">
+        <v>21721080</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="30">
+        <v>2718</v>
+      </c>
+      <c r="D26" s="30">
+        <v>33749</v>
+      </c>
+      <c r="E26" s="30">
+        <v>85599</v>
+      </c>
+      <c r="F26" s="30">
+        <v>590852</v>
+      </c>
+      <c r="G26" s="30">
+        <v>4730407</v>
+      </c>
+      <c r="H26" s="30">
+        <v>30505949</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="30">
+        <v>2029</v>
+      </c>
+      <c r="D27" s="30">
+        <v>40473</v>
+      </c>
+      <c r="E27" s="30">
+        <v>84061</v>
+      </c>
+      <c r="F27" s="30">
+        <v>539326</v>
+      </c>
+      <c r="G27" s="30">
+        <v>4058329</v>
+      </c>
+      <c r="H27" s="30">
+        <v>28914573</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B25:H25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
+++ b/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
@@ -592,6 +592,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,14 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,8 +621,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="20" builtinId="30"/>
@@ -707,7 +707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -833,11 +832,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2096497968"/>
-        <c:axId val="2094783296"/>
+        <c:axId val="2104075648"/>
+        <c:axId val="2104078976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096497968"/>
+        <c:axId val="2104075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +879,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094783296"/>
+        <c:crossAx val="2104078976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -888,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094783296"/>
+        <c:axId val="2104078976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +938,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096497968"/>
+        <c:crossAx val="2104075648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -953,7 +952,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1270,11 +1268,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2096232384"/>
-        <c:axId val="2096228848"/>
+        <c:axId val="2142753344"/>
+        <c:axId val="2142756864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096232384"/>
+        <c:axId val="2142753344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1315,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096228848"/>
+        <c:crossAx val="2142756864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1325,7 +1323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096228848"/>
+        <c:axId val="2142756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1374,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096232384"/>
+        <c:crossAx val="2142753344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1888,11 +1886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2108142720"/>
-        <c:axId val="2108146352"/>
+        <c:axId val="2142812016"/>
+        <c:axId val="2142825984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108142720"/>
+        <c:axId val="2142812016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1933,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108146352"/>
+        <c:crossAx val="2142825984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1943,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108146352"/>
+        <c:axId val="2142825984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1992,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108142720"/>
+        <c:crossAx val="2142812016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2504,11 +2502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2096117856"/>
-        <c:axId val="2096114208"/>
+        <c:axId val="2142858048"/>
+        <c:axId val="2142861680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096117856"/>
+        <c:axId val="2142858048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2549,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096114208"/>
+        <c:crossAx val="2142861680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2559,7 +2557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096114208"/>
+        <c:axId val="2142861680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2608,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096117856"/>
+        <c:crossAx val="2142858048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3120,11 +3118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2094891216"/>
-        <c:axId val="2094894848"/>
+        <c:axId val="2142912352"/>
+        <c:axId val="2142915984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094891216"/>
+        <c:axId val="2142912352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3165,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094894848"/>
+        <c:crossAx val="2142915984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094894848"/>
+        <c:axId val="2142915984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3224,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094891216"/>
+        <c:crossAx val="2142912352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,11 +3730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2109156160"/>
-        <c:axId val="2109159792"/>
+        <c:axId val="2142952464"/>
+        <c:axId val="2142956096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109156160"/>
+        <c:axId val="2142952464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3777,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109159792"/>
+        <c:crossAx val="2142956096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109159792"/>
+        <c:axId val="2142956096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,7 +3836,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109156160"/>
+        <c:crossAx val="2142952464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4099,11 +4097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2109202496"/>
-        <c:axId val="2109206000"/>
+        <c:axId val="2142986624"/>
+        <c:axId val="2142990128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109202496"/>
+        <c:axId val="2142986624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4144,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109206000"/>
+        <c:crossAx val="2142990128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4154,7 +4152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109206000"/>
+        <c:axId val="2142990128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4203,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109202496"/>
+        <c:crossAx val="2142986624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4424,11 +4422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2108169776"/>
-        <c:axId val="2108173280"/>
+        <c:axId val="2143018560"/>
+        <c:axId val="2143022064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108169776"/>
+        <c:axId val="2143018560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4469,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108173280"/>
+        <c:crossAx val="2143022064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4479,7 +4477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108173280"/>
+        <c:axId val="2143022064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4528,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108169776"/>
+        <c:crossAx val="2143018560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4749,11 +4747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2094858768"/>
-        <c:axId val="2094862000"/>
+        <c:axId val="2143541888"/>
+        <c:axId val="2143545392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094858768"/>
+        <c:axId val="2143541888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,7 +4794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094862000"/>
+        <c:crossAx val="2143545392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4804,7 +4802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094862000"/>
+        <c:axId val="2143545392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +4853,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094858768"/>
+        <c:crossAx val="2143541888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5074,11 +5072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2109219104"/>
-        <c:axId val="2109222608"/>
+        <c:axId val="2143570480"/>
+        <c:axId val="2143573984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109219104"/>
+        <c:axId val="2143570480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5119,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109222608"/>
+        <c:crossAx val="2143573984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5129,7 +5127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109222608"/>
+        <c:axId val="2143573984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5178,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109219104"/>
+        <c:crossAx val="2143570480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5541,11 +5539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2139850592"/>
-        <c:axId val="-2139471424"/>
+        <c:axId val="2143655184"/>
+        <c:axId val="2143658752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2139850592"/>
+        <c:axId val="2143655184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5587,7 +5585,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139471424"/>
+        <c:crossAx val="2143658752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5595,7 +5593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139471424"/>
+        <c:axId val="2143658752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5644,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139850592"/>
+        <c:crossAx val="2143655184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5892,11 +5890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2107088624"/>
-        <c:axId val="2107092160"/>
+        <c:axId val="2141148416"/>
+        <c:axId val="2141151952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107088624"/>
+        <c:axId val="2141148416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5939,7 +5937,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107092160"/>
+        <c:crossAx val="2141151952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5947,7 +5945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107092160"/>
+        <c:axId val="2141151952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,7 +5996,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107088624"/>
+        <c:crossAx val="2141148416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6383,11 +6381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2146687456"/>
-        <c:axId val="2145705376"/>
+        <c:axId val="2143707776"/>
+        <c:axId val="2143711344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146687456"/>
+        <c:axId val="2143707776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6429,7 +6427,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145705376"/>
+        <c:crossAx val="2143711344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6437,7 +6435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145705376"/>
+        <c:axId val="2143711344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +6486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146687456"/>
+        <c:crossAx val="2143707776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6874,11 +6872,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2126633312"/>
-        <c:axId val="-2123866656"/>
+        <c:axId val="2143002432"/>
+        <c:axId val="2143005776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126633312"/>
+        <c:axId val="2143002432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6920,7 +6918,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123866656"/>
+        <c:crossAx val="2143005776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6928,7 +6926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123866656"/>
+        <c:axId val="2143005776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6979,7 +6977,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126633312"/>
+        <c:crossAx val="2143002432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7365,11 +7363,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143106096"/>
-        <c:axId val="2143538096"/>
+        <c:axId val="2143097008"/>
+        <c:axId val="2143100576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143106096"/>
+        <c:axId val="2143097008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7411,7 +7409,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143538096"/>
+        <c:crossAx val="2143100576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7419,7 +7417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143538096"/>
+        <c:axId val="2143100576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7470,7 +7468,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143106096"/>
+        <c:crossAx val="2143097008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7751,11 +7749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2139697632"/>
-        <c:axId val="-2124563568"/>
+        <c:axId val="2143132016"/>
+        <c:axId val="2143135456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2139697632"/>
+        <c:axId val="2143132016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,7 +7795,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124563568"/>
+        <c:crossAx val="2143135456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7805,7 +7803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124563568"/>
+        <c:axId val="2143135456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7856,7 +7854,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139697632"/>
+        <c:crossAx val="2143132016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7900,6 +7898,1316 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Произведение матрицы на вектор(пар)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0742058180227472"/>
+          <c:y val="0.216263157894737"/>
+          <c:w val="0.889683070866142"/>
+          <c:h val="0.543219643597182"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S=T1(n)/Tp(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report2!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2089791024"/>
+        <c:axId val="-2096820944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2089791024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096820944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096820944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2089791024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Нахождение максимального значения(пар)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report2!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S=T1(n)/Tp(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report2!$C$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2096927424"/>
+        <c:axId val="-2096909056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2096927424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096909056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096909056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096927424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Произведение матриц (обычный алгоритм)(пар) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report2!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S=T1(n)/Tp(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report2!$C$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2100288176"/>
+        <c:axId val="-2097807392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2100288176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097807392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097807392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2100288176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Произведение матриц (алгоритм Штрассена) (пар)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report2!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S=T1(n)/Tp(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report2!$C$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2084445200"/>
+        <c:axId val="-2084441920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2084445200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084441920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2084441920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084445200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8104,11 +9412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2105880432"/>
-        <c:axId val="2105854624"/>
+        <c:axId val="2140233136"/>
+        <c:axId val="2140229584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105880432"/>
+        <c:axId val="2140233136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8151,7 +9459,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105854624"/>
+        <c:crossAx val="2140229584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8159,7 +9467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105854624"/>
+        <c:axId val="2140229584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8210,7 +9518,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105880432"/>
+        <c:crossAx val="2140233136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8458,11 +9766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2096416448"/>
-        <c:axId val="2096412912"/>
+        <c:axId val="2140196384"/>
+        <c:axId val="2140192832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096416448"/>
+        <c:axId val="2140196384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8505,7 +9813,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096412912"/>
+        <c:crossAx val="2140192832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8513,7 +9821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096412912"/>
+        <c:axId val="2140192832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8564,7 +9872,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096416448"/>
+        <c:crossAx val="2140196384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9477,11 +10785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2096321504"/>
-        <c:axId val="2096317920"/>
+        <c:axId val="2143403456"/>
+        <c:axId val="2143407024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096321504"/>
+        <c:axId val="2143403456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9524,7 +10832,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096317920"/>
+        <c:crossAx val="2143407024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9532,7 +10840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096317920"/>
+        <c:axId val="2143407024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9583,7 +10891,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096321504"/>
+        <c:crossAx val="2143403456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10496,11 +11804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2105718960"/>
-        <c:axId val="2105715376"/>
+        <c:axId val="2101806656"/>
+        <c:axId val="2140179168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105718960"/>
+        <c:axId val="2101806656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10543,7 +11851,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105715376"/>
+        <c:crossAx val="2140179168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10551,7 +11859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105715376"/>
+        <c:axId val="2140179168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10602,7 +11910,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105718960"/>
+        <c:crossAx val="2101806656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10928,11 +12236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2105571840"/>
-        <c:axId val="2105568288"/>
+        <c:axId val="2143496176"/>
+        <c:axId val="2143499712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105571840"/>
+        <c:axId val="2143496176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10975,7 +12283,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105568288"/>
+        <c:crossAx val="2143499712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10983,7 +12291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105568288"/>
+        <c:axId val="2143499712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,7 +12342,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105571840"/>
+        <c:crossAx val="2143496176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11365,11 +12673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2108112624"/>
-        <c:axId val="2108116160"/>
+        <c:axId val="2142516288"/>
+        <c:axId val="2142519600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108112624"/>
+        <c:axId val="2142516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11412,7 +12720,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108116160"/>
+        <c:crossAx val="2142519600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11420,7 +12728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108116160"/>
+        <c:axId val="2142519600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11471,7 +12779,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108112624"/>
+        <c:crossAx val="2142516288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11801,11 +13109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2094813856"/>
-        <c:axId val="2094817376"/>
+        <c:axId val="2142714112"/>
+        <c:axId val="2142717632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094813856"/>
+        <c:axId val="2142714112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11848,7 +13156,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094817376"/>
+        <c:crossAx val="2142717632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11856,7 +13164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094817376"/>
+        <c:axId val="2142717632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11907,7 +13215,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094813856"/>
+        <c:crossAx val="2142714112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12627,6 +13935,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20648,6 +22116,2070 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26572,6 +30104,191 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409955" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17119600" y="0"/>
+          <a:ext cx="2409955" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>Графики</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000" baseline="0"/>
+            <a:t> Ускорений:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26894,14 +30611,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -26927,15 +30644,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -27007,15 +30724,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -27087,15 +30804,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -27167,15 +30884,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -27265,8 +30982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="E100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:I93"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K67" sqref="A35:K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27305,30 +31022,30 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>4</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -27491,30 +31208,30 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="43">
         <v>4</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
@@ -27687,30 +31404,30 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="43">
         <v>4</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -27873,30 +31590,30 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="43">
         <v>4</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
@@ -28077,19 +31794,19 @@
       </c>
     </row>
     <row r="74" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
     </row>
     <row r="75" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C75" s="31" t="s">
@@ -28115,7 +31832,7 @@
       </c>
     </row>
     <row r="76" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="33" t="s">
         <v>0</v>
       </c>
@@ -28139,7 +31856,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="29" t="s">
@@ -28165,7 +31882,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="32" t="s">
         <v>0</v>
       </c>
@@ -28189,19 +31906,19 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
     </row>
     <row r="80" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="31" t="s">
@@ -28227,7 +31944,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="33" t="s">
         <v>0</v>
       </c>
@@ -28251,7 +31968,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C82" s="29" t="s">
@@ -28277,7 +31994,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="42"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="32" t="s">
         <v>0</v>
       </c>
@@ -28301,19 +32018,19 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
     </row>
     <row r="85" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="31" t="s">
@@ -28339,7 +32056,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="33" t="s">
         <v>0</v>
       </c>
@@ -28363,7 +32080,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -28389,7 +32106,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="32" t="s">
         <v>0</v>
       </c>
@@ -28413,19 +32130,19 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
     </row>
     <row r="90" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="31" t="s">
@@ -28451,7 +32168,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="33" t="s">
         <v>0</v>
       </c>
@@ -28475,7 +32192,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -28501,7 +32218,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="32" t="s">
         <v>0</v>
       </c>
@@ -28538,14 +32255,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C21:I21"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B74:I74"/>
@@ -28558,6 +32267,14 @@
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C21:I21"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="colorScale" priority="1">
@@ -28579,8 +32296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28613,18 +32330,18 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="29">
@@ -28647,7 +32364,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="30">
@@ -28670,7 +32387,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="29">
@@ -28693,7 +32410,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="30">
@@ -28716,18 +32433,18 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="29">
@@ -28750,7 +32467,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="30">
@@ -28773,7 +32490,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="29">
@@ -28796,7 +32513,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="30">
@@ -28819,18 +32536,18 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="29">
@@ -28853,7 +32570,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="30">
@@ -28876,7 +32593,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="29">
@@ -28899,7 +32616,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="30">
@@ -28922,18 +32639,18 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="29">
@@ -28956,7 +32673,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="30">
@@ -28979,7 +32696,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="29">
@@ -29002,7 +32719,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="30">
@@ -29025,18 +32742,18 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="30">
@@ -29059,7 +32776,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="30">

--- a/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
+++ b/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
@@ -707,6 +707,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -952,6 +953,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29988,7 +29990,7 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10214463" cy="1125693"/>
+    <xdr:ext cx="10492616" cy="1470146"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -29997,7 +29999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="863600" y="9067800"/>
-          <a:ext cx="10214463" cy="1125693"/>
+          <a:ext cx="10492616" cy="1470146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30094,10 +30096,46 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>подверджены паралелизации в итоге не дают такого же прироста в производительности как в случае не симдовских матриц.</a:t>
+            <a:t>подверджены паралелизации в итоге не дают такого же прироста в производительности как в случае не симдовских матриц. </a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Что касается двух способов распаралеливания алгоритма Штрассена, то видно, что</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> вариант с использование </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>async </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>и паралелизации на последним шаге обычного метода </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>перемножения матриц дает результат хуже. Это связано с тем, что </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Parallels.Invoke </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>сам разбивает на пачки методов, которые должны быть в разных потоках и сам решает </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>какой наиболее эффективный способ их запуска.</a:t>
+          </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -32296,8 +32334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
+++ b/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
   <si>
     <t>x32</t>
   </si>
@@ -199,6 +199,21 @@
   <si>
     <t>ParW/outSimd</t>
   </si>
+  <si>
+    <t>boost woutSimd/Simd</t>
+  </si>
+  <si>
+    <t>boost Simd/ParSimd</t>
+  </si>
+  <si>
+    <t>boost woutSimd/WoutSimdPar</t>
+  </si>
+  <si>
+    <t>boost SIMD 1stParVer/2ndParVer</t>
+  </si>
+  <si>
+    <t>boost WoutSIMD 1stParVer/2ndParVer</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -489,6 +504,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -515,7 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,6 +627,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,14 +653,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="21" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="21" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="21" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="20" builtinId="30"/>
@@ -833,11 +860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2104075648"/>
-        <c:axId val="2104078976"/>
+        <c:axId val="2125899504"/>
+        <c:axId val="2125890672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104075648"/>
+        <c:axId val="2125899504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104078976"/>
+        <c:crossAx val="2125890672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -888,7 +915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104078976"/>
+        <c:axId val="2125890672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +966,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104075648"/>
+        <c:crossAx val="2125899504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,11 +1297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142753344"/>
-        <c:axId val="2142756864"/>
+        <c:axId val="2123461984"/>
+        <c:axId val="2123458448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142753344"/>
+        <c:axId val="2123461984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1344,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142756864"/>
+        <c:crossAx val="2123458448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1325,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142756864"/>
+        <c:axId val="2123458448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1403,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142753344"/>
+        <c:crossAx val="2123461984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1888,11 +1915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142812016"/>
-        <c:axId val="2142825984"/>
+        <c:axId val="2123368656"/>
+        <c:axId val="2126692464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142812016"/>
+        <c:axId val="2123368656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1962,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142825984"/>
+        <c:crossAx val="2126692464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1943,7 +1970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142825984"/>
+        <c:axId val="2126692464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2021,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142812016"/>
+        <c:crossAx val="2123368656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2008,7 +2035,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2119,7 +2145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2504,11 +2529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142858048"/>
-        <c:axId val="2142861680"/>
+        <c:axId val="2126739856"/>
+        <c:axId val="2126743488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142858048"/>
+        <c:axId val="2126739856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2576,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142861680"/>
+        <c:crossAx val="2126743488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2559,7 +2584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142861680"/>
+        <c:axId val="2126743488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2635,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142858048"/>
+        <c:crossAx val="2126739856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,7 +2649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2735,7 +2759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3120,11 +3143,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142912352"/>
-        <c:axId val="2142915984"/>
+        <c:axId val="2126790096"/>
+        <c:axId val="2126793728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142912352"/>
+        <c:axId val="2126790096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3190,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142915984"/>
+        <c:crossAx val="2126793728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142915984"/>
+        <c:axId val="2126793728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3249,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142912352"/>
+        <c:crossAx val="2126790096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3240,7 +3263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3347,7 +3369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3732,11 +3753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142952464"/>
-        <c:axId val="2142956096"/>
+        <c:axId val="2126835440"/>
+        <c:axId val="2126839072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142952464"/>
+        <c:axId val="2126835440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3800,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142956096"/>
+        <c:crossAx val="2126839072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142956096"/>
+        <c:axId val="2126839072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,7 +3859,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142952464"/>
+        <c:crossAx val="2126835440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3852,7 +3873,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3959,7 +3979,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4099,11 +4118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142986624"/>
-        <c:axId val="2142990128"/>
+        <c:axId val="2126866032"/>
+        <c:axId val="2126869536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142986624"/>
+        <c:axId val="2126866032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4165,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142990128"/>
+        <c:crossAx val="2126869536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4154,7 +4173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142990128"/>
+        <c:axId val="2126869536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4224,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142986624"/>
+        <c:crossAx val="2126866032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4294,7 +4313,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4424,11 +4442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143018560"/>
-        <c:axId val="2143022064"/>
+        <c:axId val="2126897968"/>
+        <c:axId val="2126901472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143018560"/>
+        <c:axId val="2126897968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4489,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143022064"/>
+        <c:crossAx val="2126901472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4479,7 +4497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143022064"/>
+        <c:axId val="2126901472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143018560"/>
+        <c:crossAx val="2126897968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4619,7 +4637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4749,11 +4766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143541888"/>
-        <c:axId val="2143545392"/>
+        <c:axId val="2126929584"/>
+        <c:axId val="2126933088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143541888"/>
+        <c:axId val="2126929584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,7 +4813,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143545392"/>
+        <c:crossAx val="2126933088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4804,7 +4821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143545392"/>
+        <c:axId val="2126933088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +4872,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143541888"/>
+        <c:crossAx val="2126929584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4944,7 +4961,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5074,11 +5090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143570480"/>
-        <c:axId val="2143573984"/>
+        <c:axId val="2126961136"/>
+        <c:axId val="2126964640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143570480"/>
+        <c:axId val="2126961136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5137,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143573984"/>
+        <c:crossAx val="2126964640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5129,7 +5145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143573984"/>
+        <c:axId val="2126964640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5196,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143570480"/>
+        <c:crossAx val="2126961136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5541,11 +5557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143655184"/>
-        <c:axId val="2143658752"/>
+        <c:axId val="2097021936"/>
+        <c:axId val="2097025504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143655184"/>
+        <c:axId val="2097021936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5587,7 +5603,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143658752"/>
+        <c:crossAx val="2097025504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5595,7 +5611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143658752"/>
+        <c:axId val="2097025504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5662,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143655184"/>
+        <c:crossAx val="2097021936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5892,11 +5908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2141148416"/>
-        <c:axId val="2141151952"/>
+        <c:axId val="2126026288"/>
+        <c:axId val="2126029824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141148416"/>
+        <c:axId val="2126026288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5939,7 +5955,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141151952"/>
+        <c:crossAx val="2126029824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5947,7 +5963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141151952"/>
+        <c:axId val="2126029824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,7 +6014,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141148416"/>
+        <c:crossAx val="2126026288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6159,7 +6175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$11</c:f>
+              <c:f>Report3!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6182,7 +6198,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$11:$H$11</c:f>
+              <c:f>Report3!$C$14:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6214,7 +6230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$12</c:f>
+              <c:f>Report3!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6237,7 +6253,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$12:$H$12</c:f>
+              <c:f>Report3!$C$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6269,7 +6285,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$13</c:f>
+              <c:f>Report3!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6292,7 +6308,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$13:$H$13</c:f>
+              <c:f>Report3!$C$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6324,7 +6340,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$14</c:f>
+              <c:f>Report3!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6347,7 +6363,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$14:$H$14</c:f>
+              <c:f>Report3!$C$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6383,11 +6399,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143707776"/>
-        <c:axId val="2143711344"/>
+        <c:axId val="2097070448"/>
+        <c:axId val="2097074016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143707776"/>
+        <c:axId val="2097070448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6429,7 +6445,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143711344"/>
+        <c:crossAx val="2097074016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6437,7 +6453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143711344"/>
+        <c:axId val="2097074016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +6504,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143707776"/>
+        <c:crossAx val="2097070448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6650,7 +6666,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$16</c:f>
+              <c:f>Report3!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6673,7 +6689,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$16:$H$16</c:f>
+              <c:f>Report3!$C$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6705,7 +6721,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$17</c:f>
+              <c:f>Report3!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6728,7 +6744,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$17:$H$17</c:f>
+              <c:f>Report3!$C$23:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6760,7 +6776,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$18</c:f>
+              <c:f>Report3!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6783,7 +6799,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$18:$H$18</c:f>
+              <c:f>Report3!$C$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6815,7 +6831,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$19</c:f>
+              <c:f>Report3!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6838,7 +6854,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$19:$H$19</c:f>
+              <c:f>Report3!$C$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6874,11 +6890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143002432"/>
-        <c:axId val="2143005776"/>
+        <c:axId val="2127043552"/>
+        <c:axId val="2127047120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143002432"/>
+        <c:axId val="2127043552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6920,7 +6936,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143005776"/>
+        <c:crossAx val="2127047120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6928,7 +6944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143005776"/>
+        <c:axId val="2127047120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6979,7 +6995,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143002432"/>
+        <c:crossAx val="2127043552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7141,7 +7157,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$21</c:f>
+              <c:f>Report3!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7164,7 +7180,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$21:$H$21</c:f>
+              <c:f>Report3!$C$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7196,7 +7212,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$22</c:f>
+              <c:f>Report3!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7219,7 +7235,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$22:$H$22</c:f>
+              <c:f>Report3!$C$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7251,7 +7267,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$23</c:f>
+              <c:f>Report3!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7274,7 +7290,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$23:$H$23</c:f>
+              <c:f>Report3!$C$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7306,7 +7322,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$24</c:f>
+              <c:f>Report3!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7329,7 +7345,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$24:$H$24</c:f>
+              <c:f>Report3!$C$33:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7365,11 +7381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143097008"/>
-        <c:axId val="2143100576"/>
+        <c:axId val="2127090928"/>
+        <c:axId val="2127094496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143097008"/>
+        <c:axId val="2127090928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7411,7 +7427,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143100576"/>
+        <c:crossAx val="2127094496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7419,7 +7435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143100576"/>
+        <c:axId val="2127094496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7470,7 +7486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143097008"/>
+        <c:crossAx val="2127090928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7585,18 +7601,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Второй способ парализации</a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Умножение на матрицу. Способ 2. Алгоритм Штрассена</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> алгоритма Штрассена</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>. </a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Второй способ паралелизации</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101472222222222"/>
+          <c:y val="0.0185185185185185"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7637,7 +7669,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$26</c:f>
+              <c:f>Report3!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7660,7 +7692,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$26:$H$26</c:f>
+              <c:f>Report3!$C$38:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7692,7 +7724,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report3!$B$27</c:f>
+              <c:f>Report3!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7715,7 +7747,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report3!$C$27:$H$27</c:f>
+              <c:f>Report3!$C$39:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7751,11 +7783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143132016"/>
-        <c:axId val="2143135456"/>
+        <c:axId val="-2123168512"/>
+        <c:axId val="-2119262704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143132016"/>
+        <c:axId val="-2123168512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,7 +7829,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143135456"/>
+        <c:crossAx val="-2119262704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7805,7 +7837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143135456"/>
+        <c:axId val="-2119262704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7856,7 +7888,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143132016"/>
+        <c:crossAx val="-2123168512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7972,7 +8004,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Произведение матрицы на вектор(пар)</a:t>
+              <a:t>Поиск</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> максимального</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8009,17 +8045,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0742058180227472"/>
-          <c:y val="0.216263157894737"/>
-          <c:w val="0.889683070866142"/>
-          <c:h val="0.543219643597182"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -8028,11 +8054,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report2!$B$9</c:f>
+              <c:f>Report3!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S=T1(n)/Tp(n)</c:v>
+                  <c:v>boost woutSimd/Simd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8049,59 +8075,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:f>Report3!$C$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.0</c:v>
+                  <c:v>9.368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.0</c:v>
+                  <c:v>5.228571428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.0</c:v>
+                  <c:v>3.024253731343284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>512.0</c:v>
+                  <c:v>4.755786113328012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024.0</c:v>
+                  <c:v>5.472765509989485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2048.0</c:v>
+                  <c:v>4.84579107505071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost Simd/ParSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report2!$C$9:$I$9</c:f>
+              <c:f>Report3!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>0.131944444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>0.386740331491713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>0.515880654475457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1.128828828828829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>1.306318681318681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>2.567039833376725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost woutSimd/WoutSimdPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.126582278481013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.346153846153846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.805164319248826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.77929465301479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.06890684814972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.913133487909904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8117,17 +8223,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2089791024"/>
-        <c:axId val="-2096820944"/>
+        <c:axId val="-2117451632"/>
+        <c:axId val="-2105655152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089791024"/>
+        <c:axId val="-2117451632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8164,7 +8269,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096820944"/>
+        <c:crossAx val="-2105655152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8172,7 +8277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096820944"/>
+        <c:axId val="-2105655152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8223,7 +8328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089791024"/>
+        <c:crossAx val="-2117451632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8235,6 +8340,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8307,12 +8444,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Нахождение максимального значения(пар)</a:t>
+              <a:t>Умножение на вектор</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318847112860892"/>
+          <c:y val="0.0462962962962963"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8353,11 +8497,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report2!$B$17</c:f>
+              <c:f>Report3!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S=T1(n)/Tp(n)</c:v>
+                  <c:v>boost woutSimd/Simd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8374,59 +8518,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:f>Report3!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.0</c:v>
+                  <c:v>14.88888888888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.0</c:v>
+                  <c:v>14.95454545454545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.0</c:v>
+                  <c:v>10.34558823529412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>512.0</c:v>
+                  <c:v>11.07188160676533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024.0</c:v>
+                  <c:v>12.86206896551724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2048.0</c:v>
+                  <c:v>10.00844786281679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost Simd/ParSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report2!$C$17:$I$17</c:f>
+              <c:f>Report3!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>0.0616438356164383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>0.241758241758242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>0.131655372700871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.675714285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>1.080176767676768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>1.469792438843588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost woutSimd/WoutSimdPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.440860215053763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.768817204301075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.782258064516129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.809549356223176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.89995047052997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.82462839219965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8442,17 +8666,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2096927424"/>
-        <c:axId val="-2096909056"/>
+        <c:axId val="-2118665456"/>
+        <c:axId val="-2110479072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096927424"/>
+        <c:axId val="-2118665456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8489,7 +8712,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096909056"/>
+        <c:crossAx val="-2110479072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8497,7 +8720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096909056"/>
+        <c:axId val="-2110479072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8548,7 +8771,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096927424"/>
+        <c:crossAx val="-2118665456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8560,6 +8783,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8632,7 +8887,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Произведение матриц (обычный алгоритм)(пар) </a:t>
+              <a:t>Умножение на матрицу. Способ 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8678,11 +8933,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report2!$B$24</c:f>
+              <c:f>Report3!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S=T1(n)/Tp(n)</c:v>
+                  <c:v>boost woutSimd/Simd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8699,59 +8954,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:f>Report3!$C$26:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.0</c:v>
+                  <c:v>2.042891885916427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.0</c:v>
+                  <c:v>2.277049231635943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.0</c:v>
+                  <c:v>2.428585611093682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>512.0</c:v>
+                  <c:v>3.137010286922076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024.0</c:v>
+                  <c:v>4.849935235528654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2048.0</c:v>
+                  <c:v>10.11420932155503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost Simd/ParSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report2!$C$24:$I$24</c:f>
+              <c:f>Report3!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>1.889306599832916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>3.5791419289795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4.029232935453934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4.16705699905097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>3.874536349267977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>3.735249304442178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost woutSimd/WoutSimdPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.870528109028961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.073013759431868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.851956924502084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.688713370415028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.77399277315182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.541067458724185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,17 +9102,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2100288176"/>
-        <c:axId val="-2097807392"/>
+        <c:axId val="-2110980224"/>
+        <c:axId val="-2110096704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100288176"/>
+        <c:axId val="-2110980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8814,7 +9148,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097807392"/>
+        <c:crossAx val="-2110096704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8822,7 +9156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097807392"/>
+        <c:axId val="-2110096704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8873,7 +9207,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100288176"/>
+        <c:crossAx val="-2110980224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8885,6 +9219,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8957,8 +9323,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Произведение матриц (алгоритм Штрассена) (пар)</a:t>
+              <a:t>Умножение на матрицу. Алгоритм</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Штрассена</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9003,11 +9374,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report2!$B$31</c:f>
+              <c:f>Report3!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S=T1(n)/Tp(n)</c:v>
+                  <c:v>boost woutSimd/Simd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9024,59 +9395,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Report2!$D$73:$I$73</c:f>
+              <c:f>Report3!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.0</c:v>
+                  <c:v>1.561986361251967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.0</c:v>
+                  <c:v>1.83727779530872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.0</c:v>
+                  <c:v>2.066437762068051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>512.0</c:v>
+                  <c:v>2.239410264295202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024.0</c:v>
+                  <c:v>2.129773054499652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2048.0</c:v>
+                  <c:v>2.146182778749957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost Simd/ParSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Report2!$C$31:$I$31</c:f>
+              <c:f>Report3!$C$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>1.542340884573894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>1.132324916626965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>2.774945438673068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>3.594203097948841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>3.500142965687915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>3.525307640895708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost woutSimd/WoutSimdPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.41693722943723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.314046302123009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.783514880128802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.987736497403478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.499710724207423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.814857548519686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9092,17 +9543,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2084445200"/>
-        <c:axId val="-2084441920"/>
+        <c:axId val="-2122184256"/>
+        <c:axId val="-2117516000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2084445200"/>
+        <c:axId val="-2122184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9139,7 +9589,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084441920"/>
+        <c:crossAx val="-2117516000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9147,7 +9597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084441920"/>
+        <c:axId val="-2117516000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,7 +9648,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084445200"/>
+        <c:crossAx val="-2122184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9210,6 +9660,534 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Умножение на матрицу. Алгоритм Штрассена. Второй способ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> паралелизации.</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost Simd/ParSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$40:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.10412067696836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.126788941894575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.599434572833795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.652803070819765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.310877478407249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.592693838175629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost woutSimd/WoutSimdPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$41:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.40266140956136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.726286660242631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.469849276120912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.508276997585875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7366916285003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.87064336035673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost SIMD 1stParVer/2ndParVer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$42:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.364238410596027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.995110966250852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.936751597565392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73807823278926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.660223739733177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.735451796631536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report3!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boost WoutSIMD 1stParVer/2ndParVer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Report3!$C$43:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.821586988664367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.746003508511847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.945765574999108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.814783637354772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.764921720244958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.751215658623076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2106144144"/>
+        <c:axId val="-2105564160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2106144144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105564160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2105564160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2106144144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9414,11 +10392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2140233136"/>
-        <c:axId val="2140229584"/>
+        <c:axId val="2126059728"/>
+        <c:axId val="2126063264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140233136"/>
+        <c:axId val="2126059728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9461,7 +10439,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140229584"/>
+        <c:crossAx val="2126063264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9469,7 +10447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140229584"/>
+        <c:axId val="2126063264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9520,7 +10498,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140233136"/>
+        <c:crossAx val="2126059728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9768,11 +10746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2140196384"/>
-        <c:axId val="2140192832"/>
+        <c:axId val="2126093136"/>
+        <c:axId val="2126096672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140196384"/>
+        <c:axId val="2126093136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9815,7 +10793,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140192832"/>
+        <c:crossAx val="2126096672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9823,7 +10801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140192832"/>
+        <c:axId val="2126096672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9874,7 +10852,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140196384"/>
+        <c:crossAx val="2126093136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10787,11 +11765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143403456"/>
-        <c:axId val="2143407024"/>
+        <c:axId val="2126166912"/>
+        <c:axId val="2126170480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143403456"/>
+        <c:axId val="2126166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10834,7 +11812,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143407024"/>
+        <c:crossAx val="2126170480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10842,7 +11820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143407024"/>
+        <c:axId val="2126170480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10893,7 +11871,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143403456"/>
+        <c:crossAx val="2126166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11806,11 +12784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2101806656"/>
-        <c:axId val="2140179168"/>
+        <c:axId val="2124319344"/>
+        <c:axId val="2124322912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101806656"/>
+        <c:axId val="2124319344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11853,7 +12831,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140179168"/>
+        <c:crossAx val="2124322912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11861,7 +12839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140179168"/>
+        <c:axId val="2124322912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11912,7 +12890,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101806656"/>
+        <c:crossAx val="2124319344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12238,11 +13216,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143496176"/>
-        <c:axId val="2143499712"/>
+        <c:axId val="2124370960"/>
+        <c:axId val="2124374496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143496176"/>
+        <c:axId val="2124370960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12285,7 +13263,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143499712"/>
+        <c:crossAx val="2124374496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12293,7 +13271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143499712"/>
+        <c:axId val="2124374496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12344,7 +13322,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143496176"/>
+        <c:crossAx val="2124370960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12675,11 +13653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142516288"/>
-        <c:axId val="2142519600"/>
+        <c:axId val="2124395456"/>
+        <c:axId val="2123545072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142516288"/>
+        <c:axId val="2124395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12722,7 +13700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142519600"/>
+        <c:crossAx val="2123545072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12730,7 +13708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142519600"/>
+        <c:axId val="2123545072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12781,7 +13759,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142516288"/>
+        <c:crossAx val="2124395456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13111,11 +14089,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142714112"/>
-        <c:axId val="2142717632"/>
+        <c:axId val="2123501136"/>
+        <c:axId val="2123497600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142714112"/>
+        <c:axId val="2123501136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13158,7 +14136,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142717632"/>
+        <c:crossAx val="2123497600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13166,7 +14144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142717632"/>
+        <c:axId val="2123497600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13217,7 +14195,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142714112"/>
+        <c:crossAx val="2123501136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14097,6 +15075,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -24182,6 +25200,522 @@
 </file>
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29835,16 +31369,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29865,16 +31399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29896,15 +31430,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29925,16 +31459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29953,42 +31487,12 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10492616" cy="1470146"/>
     <xdr:sp macro="" textlink="">
@@ -29998,7 +31502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="9067800"/>
+          <a:off x="825500" y="27800300"/>
           <a:ext cx="10492616" cy="1470146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30142,140 +31646,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Диаграмма 10"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Диаграмма 11"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2409955" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -30285,7 +31661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17119600" y="0"/>
+          <a:off x="4254500" y="18351500"/>
           <a:ext cx="2409955" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30327,6 +31703,186 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1035050</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Диаграмма 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Диаграмма 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1073150</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Диаграмма 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2330450</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Диаграмма 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -31060,30 +32616,30 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="47">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -31246,30 +32802,30 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="47">
         <v>4</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
@@ -31442,30 +32998,30 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="47">
         <v>4</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -31628,30 +33184,30 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="47">
         <v>4</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
@@ -31832,19 +33388,19 @@
       </c>
     </row>
     <row r="74" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
     </row>
     <row r="75" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C75" s="31" t="s">
@@ -31870,7 +33426,7 @@
       </c>
     </row>
     <row r="76" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="49"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="33" t="s">
         <v>0</v>
       </c>
@@ -31894,7 +33450,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="29" t="s">
@@ -31920,7 +33476,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="50"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="32" t="s">
         <v>0</v>
       </c>
@@ -31944,19 +33500,19 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
     </row>
     <row r="80" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="31" t="s">
@@ -31982,7 +33538,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="49"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="33" t="s">
         <v>0</v>
       </c>
@@ -32006,7 +33562,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C82" s="29" t="s">
@@ -32032,7 +33588,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="50"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="32" t="s">
         <v>0</v>
       </c>
@@ -32068,7 +33624,7 @@
       <c r="I84" s="41"/>
     </row>
     <row r="85" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="31" t="s">
@@ -32094,7 +33650,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="49"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="33" t="s">
         <v>0</v>
       </c>
@@ -32118,7 +33674,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -32144,7 +33700,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="50"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="32" t="s">
         <v>0</v>
       </c>
@@ -32180,7 +33736,7 @@
       <c r="I89" s="41"/>
     </row>
     <row r="90" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="31" t="s">
@@ -32206,7 +33762,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="49"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="33" t="s">
         <v>0</v>
       </c>
@@ -32230,7 +33786,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -32256,7 +33812,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="50"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="32" t="s">
         <v>0</v>
       </c>
@@ -32293,6 +33849,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C21:I21"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B74:I74"/>
@@ -32305,14 +33869,6 @@
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C21:I21"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="colorScale" priority="1">
@@ -32332,15 +33888,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H27"/>
+  <dimension ref="B4:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32368,15 +33926,15 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
@@ -32471,378 +34029,842 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="53">
+        <f>C6:H6/C7:H7</f>
+        <v>9.3684210526315788</v>
+      </c>
+      <c r="D10" s="53">
+        <f t="shared" ref="D10:H10" si="0">D6:I6/D7:I7</f>
+        <v>5.2285714285714286</v>
+      </c>
+      <c r="E10" s="53">
+        <f t="shared" si="0"/>
+        <v>3.0242537313432836</v>
+      </c>
+      <c r="F10" s="53">
+        <f t="shared" si="0"/>
+        <v>4.7557861133280124</v>
+      </c>
+      <c r="G10" s="53">
+        <f t="shared" si="0"/>
+        <v>5.4727655099894852</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" si="0"/>
+        <v>4.8457910750507098</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="53">
+        <f>C7:H7/C8:H8</f>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D11" s="53">
+        <f t="shared" ref="D11:H11" si="1">D7:I7/D8:I8</f>
+        <v>0.38674033149171272</v>
+      </c>
+      <c r="E11" s="53">
+        <f t="shared" si="1"/>
+        <v>0.51588065447545717</v>
+      </c>
+      <c r="F11" s="53">
+        <f t="shared" si="1"/>
+        <v>1.1288288288288288</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="1"/>
+        <v>1.3063186813186813</v>
+      </c>
+      <c r="H11" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5670398333767248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="53">
+        <f>C6:H6/C9:H9</f>
+        <v>1.1265822784810127</v>
+      </c>
+      <c r="D12" s="53">
+        <f t="shared" ref="D12:H12" si="2">D6:I6/D9:I9</f>
+        <v>2.3461538461538463</v>
+      </c>
+      <c r="E12" s="53">
+        <f t="shared" si="2"/>
+        <v>3.8051643192488265</v>
+      </c>
+      <c r="F12" s="53">
+        <f t="shared" si="2"/>
+        <v>6.77929465301479</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="2"/>
+        <v>11.068906848149723</v>
+      </c>
+      <c r="H12" s="53">
+        <f t="shared" si="2"/>
+        <v>7.9131334879099038</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="29">
-        <v>134</v>
-      </c>
-      <c r="D11" s="29">
-        <v>329</v>
-      </c>
-      <c r="E11" s="29">
-        <v>1407</v>
-      </c>
-      <c r="F11" s="29">
-        <v>5237</v>
-      </c>
-      <c r="G11" s="29">
-        <v>22007</v>
-      </c>
-      <c r="H11" s="29">
-        <v>79377</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="30">
-        <v>9</v>
-      </c>
-      <c r="D12" s="30">
-        <v>22</v>
-      </c>
-      <c r="E12" s="30">
-        <v>136</v>
-      </c>
-      <c r="F12" s="30">
-        <v>473</v>
-      </c>
-      <c r="G12" s="30">
-        <v>1711</v>
-      </c>
-      <c r="H12" s="30">
-        <v>7931</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="29">
-        <v>146</v>
-      </c>
-      <c r="D13" s="29">
-        <v>91</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1033</v>
-      </c>
-      <c r="F13" s="29">
-        <v>700</v>
-      </c>
-      <c r="G13" s="29">
-        <v>1584</v>
-      </c>
-      <c r="H13" s="29">
-        <v>5396</v>
-      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="30">
-        <v>93</v>
-      </c>
-      <c r="D14" s="30">
-        <v>186</v>
-      </c>
-      <c r="E14" s="30">
-        <v>372</v>
-      </c>
-      <c r="F14" s="30">
-        <v>1864</v>
-      </c>
-      <c r="G14" s="30">
-        <v>2019</v>
-      </c>
-      <c r="H14" s="30">
-        <v>7333</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="29">
+        <v>134</v>
+      </c>
+      <c r="D14" s="29">
+        <v>329</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1407</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5237</v>
+      </c>
+      <c r="G14" s="29">
+        <v>22007</v>
+      </c>
+      <c r="H14" s="29">
+        <v>79377</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+    <row r="15" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="30">
+        <v>9</v>
+      </c>
+      <c r="D15" s="30">
+        <v>22</v>
+      </c>
+      <c r="E15" s="30">
+        <v>136</v>
+      </c>
+      <c r="F15" s="30">
+        <v>473</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1711</v>
+      </c>
+      <c r="H15" s="30">
+        <v>7931</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
-        <v>33</v>
+      <c r="B16" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="29">
-        <v>9240</v>
+        <v>146</v>
       </c>
       <c r="D16" s="29">
-        <v>72754</v>
+        <v>91</v>
       </c>
       <c r="E16" s="29">
-        <v>611564</v>
+        <v>1033</v>
       </c>
       <c r="F16" s="29">
-        <v>6625372</v>
+        <v>700</v>
       </c>
       <c r="G16" s="29">
-        <v>75211491</v>
+        <v>1584</v>
       </c>
       <c r="H16" s="29">
-        <v>1306827989</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>34</v>
+      <c r="B17" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="30">
-        <v>4523</v>
+        <v>93</v>
       </c>
       <c r="D17" s="30">
-        <v>31951</v>
+        <v>186</v>
       </c>
       <c r="E17" s="30">
-        <v>251819</v>
+        <v>372</v>
       </c>
       <c r="F17" s="30">
-        <v>2112002</v>
+        <v>1864</v>
       </c>
       <c r="G17" s="30">
-        <v>15507731</v>
+        <v>2019</v>
       </c>
       <c r="H17" s="30">
-        <v>129207133</v>
+        <v>7333</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="29">
-        <v>2394</v>
-      </c>
-      <c r="D18" s="29">
-        <v>8927</v>
-      </c>
-      <c r="E18" s="29">
-        <v>62498</v>
-      </c>
-      <c r="F18" s="29">
-        <v>506833</v>
-      </c>
-      <c r="G18" s="29">
-        <v>4002474</v>
-      </c>
-      <c r="H18" s="29">
-        <v>34591301</v>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="53">
+        <f>C14:H14/C15:H15</f>
+        <v>14.888888888888889</v>
+      </c>
+      <c r="D18" s="53">
+        <f t="shared" ref="D18:H18" si="3">D14:I14/D15:I15</f>
+        <v>14.954545454545455</v>
+      </c>
+      <c r="E18" s="53">
+        <f t="shared" si="3"/>
+        <v>10.345588235294118</v>
+      </c>
+      <c r="F18" s="53">
+        <f t="shared" si="3"/>
+        <v>11.071881606765327</v>
+      </c>
+      <c r="G18" s="53">
+        <f t="shared" si="3"/>
+        <v>12.862068965517242</v>
+      </c>
+      <c r="H18" s="53">
+        <f t="shared" si="3"/>
+        <v>10.008447862816794</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="30">
-        <v>1174</v>
-      </c>
-      <c r="D19" s="30">
-        <v>9012</v>
-      </c>
-      <c r="E19" s="30">
-        <v>69088</v>
-      </c>
-      <c r="F19" s="30">
-        <v>861701</v>
-      </c>
-      <c r="G19" s="30">
-        <v>9674757</v>
-      </c>
-      <c r="H19" s="30">
-        <v>199788184</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="53">
+        <f>C15:H15/C16:H16</f>
+        <v>6.1643835616438353E-2</v>
+      </c>
+      <c r="D19" s="53">
+        <f t="shared" ref="D19:H19" si="4">D15:I15/D16:I16</f>
+        <v>0.24175824175824176</v>
+      </c>
+      <c r="E19" s="53">
+        <f t="shared" si="4"/>
+        <v>0.13165537270087124</v>
+      </c>
+      <c r="F19" s="53">
+        <f t="shared" si="4"/>
+        <v>0.67571428571428571</v>
+      </c>
+      <c r="G19" s="53">
+        <f t="shared" si="4"/>
+        <v>1.0801767676767677</v>
+      </c>
+      <c r="H19" s="53">
+        <f t="shared" si="4"/>
+        <v>1.4697924388435879</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="B20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="53">
+        <f>C14:H14/C17:H17</f>
+        <v>1.4408602150537635</v>
+      </c>
+      <c r="D20" s="53">
+        <f t="shared" ref="D20:H20" si="5">D14:I14/D17:I17</f>
+        <v>1.7688172043010753</v>
+      </c>
+      <c r="E20" s="53">
+        <f t="shared" si="5"/>
+        <v>3.782258064516129</v>
+      </c>
+      <c r="F20" s="53">
+        <f t="shared" si="5"/>
+        <v>2.8095493562231759</v>
+      </c>
+      <c r="G20" s="53">
+        <f t="shared" si="5"/>
+        <v>10.899950470529966</v>
+      </c>
+      <c r="H20" s="53">
+        <f t="shared" si="5"/>
+        <v>10.824628392199646</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="29">
-        <v>8933</v>
-      </c>
-      <c r="D21" s="29">
-        <v>69868</v>
-      </c>
-      <c r="E21" s="29">
-        <v>459801</v>
-      </c>
-      <c r="F21" s="29">
-        <v>3510083</v>
-      </c>
-      <c r="G21" s="29">
-        <v>23281382</v>
-      </c>
-      <c r="H21" s="29">
-        <v>169747146</v>
-      </c>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="30">
-        <v>5719</v>
-      </c>
-      <c r="D22" s="30">
-        <v>38028</v>
-      </c>
-      <c r="E22" s="30">
-        <v>222509</v>
-      </c>
-      <c r="F22" s="30">
-        <v>1567414</v>
-      </c>
-      <c r="G22" s="30">
-        <v>10931391</v>
-      </c>
-      <c r="H22" s="30">
-        <v>79092586</v>
+      <c r="B22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="29">
+        <v>9240</v>
+      </c>
+      <c r="D22" s="29">
+        <v>72754</v>
+      </c>
+      <c r="E22" s="29">
+        <v>611564</v>
+      </c>
+      <c r="F22" s="29">
+        <v>6625372</v>
+      </c>
+      <c r="G22" s="29">
+        <v>75211491</v>
+      </c>
+      <c r="H22" s="29">
+        <v>1306827989</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="29">
-        <v>3708</v>
-      </c>
-      <c r="D23" s="29">
-        <v>33584</v>
-      </c>
-      <c r="E23" s="29">
-        <v>80185</v>
-      </c>
-      <c r="F23" s="29">
-        <v>436095</v>
-      </c>
-      <c r="G23" s="29">
-        <v>3123127</v>
-      </c>
-      <c r="H23" s="29">
-        <v>22435655</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="30">
+        <v>4523</v>
+      </c>
+      <c r="D23" s="30">
+        <v>31951</v>
+      </c>
+      <c r="E23" s="30">
+        <v>251819</v>
+      </c>
+      <c r="F23" s="30">
+        <v>2112002</v>
+      </c>
+      <c r="G23" s="30">
+        <v>15507731</v>
+      </c>
+      <c r="H23" s="30">
+        <v>129207133</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2394</v>
+      </c>
+      <c r="D24" s="29">
+        <v>8927</v>
+      </c>
+      <c r="E24" s="29">
+        <v>62498</v>
+      </c>
+      <c r="F24" s="29">
+        <v>506833</v>
+      </c>
+      <c r="G24" s="29">
+        <v>4002474</v>
+      </c>
+      <c r="H24" s="29">
+        <v>34591301</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C25" s="30">
+        <v>1174</v>
+      </c>
+      <c r="D25" s="30">
+        <v>9012</v>
+      </c>
+      <c r="E25" s="30">
+        <v>69088</v>
+      </c>
+      <c r="F25" s="30">
+        <v>861701</v>
+      </c>
+      <c r="G25" s="30">
+        <v>9674757</v>
+      </c>
+      <c r="H25" s="30">
+        <v>199788184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="53">
+        <f>C22:H22/C23:H23</f>
+        <v>2.0428918859164273</v>
+      </c>
+      <c r="D26" s="53">
+        <f t="shared" ref="D26:H26" si="6">D22:I22/D23:I23</f>
+        <v>2.2770492316359427</v>
+      </c>
+      <c r="E26" s="53">
+        <f t="shared" si="6"/>
+        <v>2.4285856110936823</v>
+      </c>
+      <c r="F26" s="53">
+        <f t="shared" si="6"/>
+        <v>3.1370102869220768</v>
+      </c>
+      <c r="G26" s="53">
+        <f t="shared" si="6"/>
+        <v>4.8499352355286538</v>
+      </c>
+      <c r="H26" s="53">
+        <f t="shared" si="6"/>
+        <v>10.114209321555025</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="53">
+        <f>C23:H23/C24:H24</f>
+        <v>1.8893065998329157</v>
+      </c>
+      <c r="D27" s="53">
+        <f t="shared" ref="D27:H27" si="7">D23:I23/D24:I24</f>
+        <v>3.5791419289795003</v>
+      </c>
+      <c r="E27" s="53">
+        <f t="shared" si="7"/>
+        <v>4.0292329354539342</v>
+      </c>
+      <c r="F27" s="53">
+        <f t="shared" si="7"/>
+        <v>4.1670569990509696</v>
+      </c>
+      <c r="G27" s="53">
+        <f t="shared" si="7"/>
+        <v>3.8745363492679776</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" si="7"/>
+        <v>3.7352493044421777</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="53">
+        <f>C22:H22/C25:H25</f>
+        <v>7.8705281090289612</v>
+      </c>
+      <c r="D28" s="53">
+        <f t="shared" ref="D28:H28" si="8">D22:I22/D25:I25</f>
+        <v>8.0730137594318681</v>
+      </c>
+      <c r="E28" s="53">
+        <f t="shared" si="8"/>
+        <v>8.851956924502085</v>
+      </c>
+      <c r="F28" s="53">
+        <f t="shared" si="8"/>
+        <v>7.6887133704150283</v>
+      </c>
+      <c r="G28" s="53">
+        <f t="shared" si="8"/>
+        <v>7.7739927731518215</v>
+      </c>
+      <c r="H28" s="53">
+        <f t="shared" si="8"/>
+        <v>6.5410674587241857</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="29">
+        <v>8933</v>
+      </c>
+      <c r="D30" s="29">
+        <v>69868</v>
+      </c>
+      <c r="E30" s="29">
+        <v>459801</v>
+      </c>
+      <c r="F30" s="29">
+        <v>3510083</v>
+      </c>
+      <c r="G30" s="29">
+        <v>23281382</v>
+      </c>
+      <c r="H30" s="29">
+        <v>169747146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="30">
+        <v>5719</v>
+      </c>
+      <c r="D31" s="30">
+        <v>38028</v>
+      </c>
+      <c r="E31" s="30">
+        <v>222509</v>
+      </c>
+      <c r="F31" s="30">
+        <v>1567414</v>
+      </c>
+      <c r="G31" s="30">
+        <v>10931391</v>
+      </c>
+      <c r="H31" s="30">
+        <v>79092586</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="29">
+        <v>3708</v>
+      </c>
+      <c r="D32" s="29">
+        <v>33584</v>
+      </c>
+      <c r="E32" s="29">
+        <v>80185</v>
+      </c>
+      <c r="F32" s="29">
+        <v>436095</v>
+      </c>
+      <c r="G32" s="29">
+        <v>3123127</v>
+      </c>
+      <c r="H32" s="29">
+        <v>22435655</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="30">
         <v>3696</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D33" s="30">
         <v>30193</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E33" s="30">
         <v>79502</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F33" s="30">
         <v>439434</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G33" s="30">
         <v>3104304</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H33" s="30">
         <v>21721080</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="41" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="53">
+        <f>C30:H30/C31:H31</f>
+        <v>1.5619863612519671</v>
+      </c>
+      <c r="D34" s="53">
+        <f t="shared" ref="D34:H34" si="9">D30:I30/D31:I31</f>
+        <v>1.8372777953087198</v>
+      </c>
+      <c r="E34" s="53">
+        <f t="shared" si="9"/>
+        <v>2.066437762068051</v>
+      </c>
+      <c r="F34" s="53">
+        <f t="shared" si="9"/>
+        <v>2.2394102642952021</v>
+      </c>
+      <c r="G34" s="53">
+        <f t="shared" si="9"/>
+        <v>2.1297730544996516</v>
+      </c>
+      <c r="H34" s="53">
+        <f t="shared" si="9"/>
+        <v>2.1461827787499579</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="53">
+        <f>C31:H31/C32:H32</f>
+        <v>1.5423408845738942</v>
+      </c>
+      <c r="D35" s="53">
+        <f t="shared" ref="D35:H35" si="10">D31:I31/D32:I32</f>
+        <v>1.1323249166269653</v>
+      </c>
+      <c r="E35" s="53">
+        <f t="shared" si="10"/>
+        <v>2.7749454386730683</v>
+      </c>
+      <c r="F35" s="53">
+        <f t="shared" si="10"/>
+        <v>3.5942030979488413</v>
+      </c>
+      <c r="G35" s="53">
+        <f t="shared" si="10"/>
+        <v>3.5001429656879148</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="10"/>
+        <v>3.5253076408957082</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="53">
+        <f>C30:H30/C33:H33</f>
+        <v>2.4169372294372296</v>
+      </c>
+      <c r="D36" s="53">
+        <f t="shared" ref="D36:H36" si="11">D30:I30/D33:I33</f>
+        <v>2.3140463021230087</v>
+      </c>
+      <c r="E36" s="53">
+        <f t="shared" si="11"/>
+        <v>5.7835148801288021</v>
+      </c>
+      <c r="F36" s="53">
+        <f t="shared" si="11"/>
+        <v>7.9877364974034784</v>
+      </c>
+      <c r="G36" s="53">
+        <f t="shared" si="11"/>
+        <v>7.4997107242074232</v>
+      </c>
+      <c r="H36" s="53">
+        <f t="shared" si="11"/>
+        <v>7.8148575485196865</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
-    <row r="26" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+    <row r="38" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C38" s="30">
         <v>2718</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D38" s="30">
         <v>33749</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E38" s="30">
         <v>85599</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F38" s="30">
         <v>590852</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G38" s="30">
         <v>4730407</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H38" s="30">
         <v>30505949</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+    <row r="39" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C39" s="30">
         <v>2029</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D39" s="30">
         <v>40473</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E39" s="30">
         <v>84061</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F39" s="30">
         <v>539326</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G39" s="30">
         <v>4058329</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H39" s="30">
         <v>28914573</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="55">
+        <f>C31:H31/C38:H38</f>
+        <v>2.1041206769683591</v>
+      </c>
+      <c r="D40" s="53">
+        <f t="shared" ref="D40:H40" si="12">D31:I31/D38:I38</f>
+        <v>1.1267889418945747</v>
+      </c>
+      <c r="E40" s="53">
+        <f t="shared" si="12"/>
+        <v>2.5994345728337946</v>
+      </c>
+      <c r="F40" s="53">
+        <f t="shared" si="12"/>
+        <v>2.6528030708197652</v>
+      </c>
+      <c r="G40" s="53">
+        <f t="shared" si="12"/>
+        <v>2.310877478407249</v>
+      </c>
+      <c r="H40" s="53">
+        <f t="shared" si="12"/>
+        <v>2.5926938381756295</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="53">
+        <f>C30:H30/C39:H39</f>
+        <v>4.4026614095613601</v>
+      </c>
+      <c r="D41" s="53">
+        <f t="shared" ref="D41:H41" si="13">D30:I30/D39:I39</f>
+        <v>1.726286660242631</v>
+      </c>
+      <c r="E41" s="53">
+        <f t="shared" si="13"/>
+        <v>5.4698492761209119</v>
+      </c>
+      <c r="F41" s="53">
+        <f t="shared" si="13"/>
+        <v>6.5082769975858756</v>
+      </c>
+      <c r="G41" s="53">
+        <f t="shared" si="13"/>
+        <v>5.7366916285003011</v>
+      </c>
+      <c r="H41" s="53">
+        <f t="shared" si="13"/>
+        <v>5.8706433603567305</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="30">
+        <f>C32:H32/C38:H38</f>
+        <v>1.3642384105960266</v>
+      </c>
+      <c r="D42" s="30">
+        <f t="shared" ref="D42:H42" si="14">D32:I32/D38:I38</f>
+        <v>0.99511096625085182</v>
+      </c>
+      <c r="E42" s="30">
+        <f t="shared" si="14"/>
+        <v>0.93675159756539217</v>
+      </c>
+      <c r="F42" s="30">
+        <f t="shared" si="14"/>
+        <v>0.73807823278926021</v>
+      </c>
+      <c r="G42" s="30">
+        <f t="shared" si="14"/>
+        <v>0.66022373973317727</v>
+      </c>
+      <c r="H42" s="30">
+        <f t="shared" si="14"/>
+        <v>0.7354517966315357</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="30">
+        <f>C33:H33/C39:H39</f>
+        <v>1.8215869886643667</v>
+      </c>
+      <c r="D43" s="30">
+        <f t="shared" ref="D43:H43" si="15">D33:I33/D39:I39</f>
+        <v>0.74600350851184738</v>
+      </c>
+      <c r="E43" s="30">
+        <f t="shared" si="15"/>
+        <v>0.94576557499910774</v>
+      </c>
+      <c r="F43" s="30">
+        <f t="shared" si="15"/>
+        <v>0.81478363735477244</v>
+      </c>
+      <c r="G43" s="30">
+        <f t="shared" si="15"/>
+        <v>0.76492172024495797</v>
+      </c>
+      <c r="H43" s="30">
+        <f t="shared" si="15"/>
+        <v>0.7512156586230756</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
+++ b/Reports/ПИ-13-4_Потемкин_ИЗ1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostemkin/Documents/Personal/PrP/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Theory approximate" sheetId="2" state="hidden" r:id="rId1"/>
@@ -226,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +290,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -40837,7 +40843,7 @@
       <xdr:row>135</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10492616" cy="1470146"/>
+    <xdr:ext cx="13187393" cy="1470146"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -40846,7 +40852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="825500" y="27800300"/>
-          <a:ext cx="10492616" cy="1470146"/>
+          <a:ext cx="13187393" cy="1470146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40893,7 +40899,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>. Также из полученных результов видно, что распаралеливание обычной</a:t>
+            <a:t>. Из полученных результов видно, что распаралеливание обычной</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -40907,7 +40913,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>, что еще раз </a:t>
+            <a:t>(если брать использование на больших матрицах), что еще раз </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -40975,7 +40981,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>сам разбивает на пачки методов, которые должны быть в разных потоках и сам решает </a:t>
+            <a:t>сам разбивает на пачки передаваемые методы, которые должны быть в разных потоках и сам решает </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -43633,8 +43639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H43" sqref="B4:H43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44609,6 +44615,7 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B37:H37"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -44619,7 +44626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="B88" workbookViewId="0">
       <selection activeCell="C43" sqref="C43:I46"/>
     </sheetView>
   </sheetViews>
